--- a/artfynd/A 9122-2025 artfynd.xlsx
+++ b/artfynd/A 9122-2025 artfynd.xlsx
@@ -683,12 +683,7 @@
         <v>123181626</v>
       </c>
       <c r="B2" t="n">
-        <v>57507</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 9122-2025 artfynd.xlsx
+++ b/artfynd/A 9122-2025 artfynd.xlsx
@@ -791,7 +791,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Tomas Fasth, Cecilia Persson</t>
+          <t>Cecilia Persson, Tomas Fasth</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>

--- a/artfynd/A 9122-2025 artfynd.xlsx
+++ b/artfynd/A 9122-2025 artfynd.xlsx
@@ -791,7 +791,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Cecilia Persson, Tomas Fasth</t>
+          <t>Tomas Fasth, Cecilia Persson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
